--- a/2022/Symphony/JULY/21.07.2022/MC Bank Statement June-2022.xlsx
+++ b/2022/Symphony/JULY/21.07.2022/MC Bank Statement June-2022.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MC22\2022\Symphony\JULY\20.07.2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MC22\2022\Symphony\JULY\21.07.2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -103,7 +103,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="241">
   <si>
     <t>Date</t>
   </si>
@@ -582,9 +582,6 @@
     <t>30.06.2022</t>
   </si>
   <si>
-    <t>Symphony  Balance(-)</t>
-  </si>
-  <si>
     <t>Somobai</t>
   </si>
   <si>
@@ -637,9 +634,6 @@
   </si>
   <si>
     <t>L=RK Mobile King</t>
-  </si>
-  <si>
-    <t>Na=Somobai Nabinogor</t>
   </si>
   <si>
     <t>C=Momtaj Telecom</t>
@@ -720,9 +714,6 @@
     <t>Afzal Telecom</t>
   </si>
   <si>
-    <t>Ch=Afzal Telecom</t>
-  </si>
-  <si>
     <t>Bi=Friends Electronics</t>
   </si>
   <si>
@@ -777,9 +768,6 @@
     <t>Boss (-) 20 Lac.</t>
   </si>
   <si>
-    <t>17.06.2022</t>
-  </si>
-  <si>
     <t>18.07.2022</t>
   </si>
   <si>
@@ -793,9 +781,6 @@
   </si>
   <si>
     <t>Moom Telecom</t>
-  </si>
-  <si>
-    <t>Date:20.07.2022</t>
   </si>
   <si>
     <t>20.07.2022</t>
@@ -813,7 +798,34 @@
     <t>Bonpara</t>
   </si>
   <si>
-    <t>Mahfuz</t>
+    <t>21.07.2022</t>
+  </si>
+  <si>
+    <t>Boss (+) 25 Lac.</t>
+  </si>
+  <si>
+    <t>Date:21.07.2022</t>
+  </si>
+  <si>
+    <t>A.M Tipu Boss (+)</t>
+  </si>
+  <si>
+    <t>Khalifa Electronics</t>
+  </si>
+  <si>
+    <t>Sarkar Telecom</t>
+  </si>
+  <si>
+    <t>Bhuiyan Mobile</t>
+  </si>
+  <si>
+    <t>Symphony  Balance(+)</t>
+  </si>
+  <si>
+    <t>Bon=Bhuiyan Mobile</t>
+  </si>
+  <si>
+    <t>A=Khalifa Electronics</t>
   </si>
 </sst>
 </file>
@@ -1120,7 +1132,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="47">
+  <fills count="48">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1381,6 +1393,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2181,7 +2199,7 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="394">
+  <cellXfs count="396">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3186,6 +3204,12 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="33" fillId="47" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="33" fillId="47" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4039,33 +4063,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A1" s="348"/>
-      <c r="B1" s="348"/>
-      <c r="C1" s="348"/>
-      <c r="D1" s="348"/>
-      <c r="E1" s="348"/>
-      <c r="F1" s="348"/>
+      <c r="A1" s="350"/>
+      <c r="B1" s="350"/>
+      <c r="C1" s="350"/>
+      <c r="D1" s="350"/>
+      <c r="E1" s="350"/>
+      <c r="F1" s="350"/>
     </row>
     <row r="2" spans="1:8" ht="20.25">
-      <c r="A2" s="349"/>
-      <c r="B2" s="346" t="s">
+      <c r="A2" s="351"/>
+      <c r="B2" s="348" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="346"/>
-      <c r="D2" s="346"/>
-      <c r="E2" s="346"/>
+      <c r="C2" s="348"/>
+      <c r="D2" s="348"/>
+      <c r="E2" s="348"/>
     </row>
     <row r="3" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A3" s="349"/>
-      <c r="B3" s="347" t="s">
+      <c r="A3" s="351"/>
+      <c r="B3" s="349" t="s">
         <v>49</v>
       </c>
-      <c r="C3" s="347"/>
-      <c r="D3" s="347"/>
-      <c r="E3" s="347"/>
+      <c r="C3" s="349"/>
+      <c r="D3" s="349"/>
+      <c r="E3" s="349"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A4" s="349"/>
+      <c r="A4" s="351"/>
       <c r="B4" s="22" t="s">
         <v>0</v>
       </c>
@@ -4083,7 +4107,7 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="349"/>
+      <c r="A5" s="351"/>
       <c r="B5" s="24" t="s">
         <v>3</v>
       </c>
@@ -4101,7 +4125,7 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="349"/>
+      <c r="A6" s="351"/>
       <c r="B6" s="26"/>
       <c r="C6" s="25"/>
       <c r="D6" s="25"/>
@@ -4113,7 +4137,7 @@
       <c r="G6" s="19"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="349"/>
+      <c r="A7" s="351"/>
       <c r="B7" s="26" t="s">
         <v>47</v>
       </c>
@@ -4132,7 +4156,7 @@
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="349"/>
+      <c r="A8" s="351"/>
       <c r="B8" s="26" t="s">
         <v>48</v>
       </c>
@@ -4151,7 +4175,7 @@
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="349"/>
+      <c r="A9" s="351"/>
       <c r="B9" s="26" t="s">
         <v>50</v>
       </c>
@@ -4170,7 +4194,7 @@
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="349"/>
+      <c r="A10" s="351"/>
       <c r="B10" s="26" t="s">
         <v>51</v>
       </c>
@@ -4189,7 +4213,7 @@
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="349"/>
+      <c r="A11" s="351"/>
       <c r="B11" s="26" t="s">
         <v>52</v>
       </c>
@@ -4208,7 +4232,7 @@
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="349"/>
+      <c r="A12" s="351"/>
       <c r="B12" s="26" t="s">
         <v>53</v>
       </c>
@@ -4227,7 +4251,7 @@
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="349"/>
+      <c r="A13" s="351"/>
       <c r="B13" s="26" t="s">
         <v>54</v>
       </c>
@@ -4246,7 +4270,7 @@
       <c r="H13" s="30"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="349"/>
+      <c r="A14" s="351"/>
       <c r="B14" s="26" t="s">
         <v>55</v>
       </c>
@@ -4265,7 +4289,7 @@
       <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="349"/>
+      <c r="A15" s="351"/>
       <c r="B15" s="26" t="s">
         <v>56</v>
       </c>
@@ -4284,7 +4308,7 @@
       <c r="H15" s="11"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="349"/>
+      <c r="A16" s="351"/>
       <c r="B16" s="26"/>
       <c r="C16" s="25"/>
       <c r="D16" s="25"/>
@@ -4297,7 +4321,7 @@
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="349"/>
+      <c r="A17" s="351"/>
       <c r="B17" s="26"/>
       <c r="C17" s="25"/>
       <c r="D17" s="25"/>
@@ -4310,7 +4334,7 @@
       <c r="H17" s="2"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="349"/>
+      <c r="A18" s="351"/>
       <c r="B18" s="26"/>
       <c r="C18" s="25"/>
       <c r="D18" s="25"/>
@@ -4323,7 +4347,7 @@
       <c r="H18" s="2"/>
     </row>
     <row r="19" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A19" s="349"/>
+      <c r="A19" s="351"/>
       <c r="B19" s="26"/>
       <c r="C19" s="25"/>
       <c r="D19" s="25"/>
@@ -4336,7 +4360,7 @@
       <c r="H19" s="2"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="349"/>
+      <c r="A20" s="351"/>
       <c r="B20" s="26"/>
       <c r="C20" s="25"/>
       <c r="D20" s="25"/>
@@ -4349,7 +4373,7 @@
       <c r="H20" s="2"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="349"/>
+      <c r="A21" s="351"/>
       <c r="B21" s="26"/>
       <c r="C21" s="25"/>
       <c r="D21" s="25"/>
@@ -4362,7 +4386,7 @@
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="349"/>
+      <c r="A22" s="351"/>
       <c r="B22" s="26"/>
       <c r="C22" s="25"/>
       <c r="D22" s="25"/>
@@ -4375,7 +4399,7 @@
       <c r="H22" s="2"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="349"/>
+      <c r="A23" s="351"/>
       <c r="B23" s="26"/>
       <c r="C23" s="25"/>
       <c r="D23" s="25"/>
@@ -4388,7 +4412,7 @@
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="349"/>
+      <c r="A24" s="351"/>
       <c r="B24" s="26"/>
       <c r="C24" s="25"/>
       <c r="D24" s="25"/>
@@ -4401,7 +4425,7 @@
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="349"/>
+      <c r="A25" s="351"/>
       <c r="B25" s="26"/>
       <c r="C25" s="25"/>
       <c r="D25" s="25"/>
@@ -4414,7 +4438,7 @@
       <c r="H25" s="2"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="349"/>
+      <c r="A26" s="351"/>
       <c r="B26" s="26"/>
       <c r="C26" s="25"/>
       <c r="D26" s="25"/>
@@ -4427,7 +4451,7 @@
       <c r="H26" s="2"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="349"/>
+      <c r="A27" s="351"/>
       <c r="B27" s="26"/>
       <c r="C27" s="25"/>
       <c r="D27" s="25"/>
@@ -4440,7 +4464,7 @@
       <c r="H27" s="21"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="349"/>
+      <c r="A28" s="351"/>
       <c r="B28" s="26"/>
       <c r="C28" s="25"/>
       <c r="D28" s="25"/>
@@ -4453,7 +4477,7 @@
       <c r="H28" s="21"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="349"/>
+      <c r="A29" s="351"/>
       <c r="B29" s="26"/>
       <c r="C29" s="25"/>
       <c r="D29" s="25"/>
@@ -4466,7 +4490,7 @@
       <c r="H29" s="21"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="349"/>
+      <c r="A30" s="351"/>
       <c r="B30" s="26"/>
       <c r="C30" s="25"/>
       <c r="D30" s="25"/>
@@ -4479,7 +4503,7 @@
       <c r="H30" s="21"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="349"/>
+      <c r="A31" s="351"/>
       <c r="B31" s="26"/>
       <c r="C31" s="25"/>
       <c r="D31" s="25"/>
@@ -4492,7 +4516,7 @@
       <c r="H31" s="21"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="349"/>
+      <c r="A32" s="351"/>
       <c r="B32" s="26"/>
       <c r="C32" s="25"/>
       <c r="D32" s="25"/>
@@ -4505,7 +4529,7 @@
       <c r="H32" s="21"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="349"/>
+      <c r="A33" s="351"/>
       <c r="B33" s="26"/>
       <c r="C33" s="25"/>
       <c r="D33" s="28"/>
@@ -4518,7 +4542,7 @@
       <c r="H33" s="21"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="349"/>
+      <c r="A34" s="351"/>
       <c r="B34" s="26"/>
       <c r="C34" s="25"/>
       <c r="D34" s="25"/>
@@ -4531,7 +4555,7 @@
       <c r="H34" s="21"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="349"/>
+      <c r="A35" s="351"/>
       <c r="B35" s="26"/>
       <c r="C35" s="25"/>
       <c r="D35" s="25"/>
@@ -4544,7 +4568,7 @@
       <c r="H35" s="21"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="349"/>
+      <c r="A36" s="351"/>
       <c r="B36" s="26"/>
       <c r="C36" s="25"/>
       <c r="D36" s="25"/>
@@ -4557,7 +4581,7 @@
       <c r="H36" s="21"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="349"/>
+      <c r="A37" s="351"/>
       <c r="B37" s="26"/>
       <c r="C37" s="25"/>
       <c r="D37" s="25"/>
@@ -4570,7 +4594,7 @@
       <c r="H37" s="21"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="349"/>
+      <c r="A38" s="351"/>
       <c r="B38" s="26"/>
       <c r="C38" s="25"/>
       <c r="D38" s="25"/>
@@ -4583,7 +4607,7 @@
       <c r="H38" s="21"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="349"/>
+      <c r="A39" s="351"/>
       <c r="B39" s="26"/>
       <c r="C39" s="25"/>
       <c r="D39" s="25"/>
@@ -4596,7 +4620,7 @@
       <c r="H39" s="21"/>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="349"/>
+      <c r="A40" s="351"/>
       <c r="B40" s="26"/>
       <c r="C40" s="25"/>
       <c r="D40" s="25"/>
@@ -4609,7 +4633,7 @@
       <c r="H40" s="21"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="349"/>
+      <c r="A41" s="351"/>
       <c r="B41" s="26"/>
       <c r="C41" s="25"/>
       <c r="D41" s="25"/>
@@ -4622,7 +4646,7 @@
       <c r="H41" s="21"/>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="349"/>
+      <c r="A42" s="351"/>
       <c r="B42" s="26"/>
       <c r="C42" s="25"/>
       <c r="D42" s="25"/>
@@ -4635,7 +4659,7 @@
       <c r="H42" s="21"/>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="349"/>
+      <c r="A43" s="351"/>
       <c r="B43" s="26"/>
       <c r="C43" s="25"/>
       <c r="D43" s="25"/>
@@ -4648,7 +4672,7 @@
       <c r="H43" s="21"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="349"/>
+      <c r="A44" s="351"/>
       <c r="B44" s="26"/>
       <c r="C44" s="25"/>
       <c r="D44" s="25"/>
@@ -4661,7 +4685,7 @@
       <c r="H44" s="21"/>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="349"/>
+      <c r="A45" s="351"/>
       <c r="B45" s="26"/>
       <c r="C45" s="25"/>
       <c r="D45" s="25"/>
@@ -4674,7 +4698,7 @@
       <c r="H45" s="21"/>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="349"/>
+      <c r="A46" s="351"/>
       <c r="B46" s="26"/>
       <c r="C46" s="25"/>
       <c r="D46" s="25"/>
@@ -4687,7 +4711,7 @@
       <c r="H46" s="21"/>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="349"/>
+      <c r="A47" s="351"/>
       <c r="B47" s="26"/>
       <c r="C47" s="25"/>
       <c r="D47" s="25"/>
@@ -4700,7 +4724,7 @@
       <c r="H47" s="21"/>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="349"/>
+      <c r="A48" s="351"/>
       <c r="B48" s="26"/>
       <c r="C48" s="25"/>
       <c r="D48" s="25"/>
@@ -4713,7 +4737,7 @@
       <c r="H48" s="21"/>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="349"/>
+      <c r="A49" s="351"/>
       <c r="B49" s="26"/>
       <c r="C49" s="25"/>
       <c r="D49" s="25"/>
@@ -4726,7 +4750,7 @@
       <c r="H49" s="21"/>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="349"/>
+      <c r="A50" s="351"/>
       <c r="B50" s="26"/>
       <c r="C50" s="25"/>
       <c r="D50" s="25"/>
@@ -4739,7 +4763,7 @@
       <c r="H50" s="21"/>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="349"/>
+      <c r="A51" s="351"/>
       <c r="B51" s="26"/>
       <c r="C51" s="25"/>
       <c r="D51" s="25"/>
@@ -4752,7 +4776,7 @@
       <c r="H51" s="21"/>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="349"/>
+      <c r="A52" s="351"/>
       <c r="B52" s="26"/>
       <c r="C52" s="25"/>
       <c r="D52" s="25"/>
@@ -4765,7 +4789,7 @@
       <c r="H52" s="21"/>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="349"/>
+      <c r="A53" s="351"/>
       <c r="B53" s="26"/>
       <c r="C53" s="25"/>
       <c r="D53" s="25"/>
@@ -4778,7 +4802,7 @@
       <c r="H53" s="21"/>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="349"/>
+      <c r="A54" s="351"/>
       <c r="B54" s="26"/>
       <c r="C54" s="25"/>
       <c r="D54" s="25"/>
@@ -4791,7 +4815,7 @@
       <c r="H54" s="21"/>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="349"/>
+      <c r="A55" s="351"/>
       <c r="B55" s="26"/>
       <c r="C55" s="25"/>
       <c r="D55" s="25"/>
@@ -4803,7 +4827,7 @@
       <c r="G55" s="2"/>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="349"/>
+      <c r="A56" s="351"/>
       <c r="B56" s="26"/>
       <c r="C56" s="25"/>
       <c r="D56" s="25"/>
@@ -4815,7 +4839,7 @@
       <c r="G56" s="2"/>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="349"/>
+      <c r="A57" s="351"/>
       <c r="B57" s="26"/>
       <c r="C57" s="25"/>
       <c r="D57" s="25"/>
@@ -4827,7 +4851,7 @@
       <c r="G57" s="2"/>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58" s="349"/>
+      <c r="A58" s="351"/>
       <c r="B58" s="26"/>
       <c r="C58" s="25"/>
       <c r="D58" s="25"/>
@@ -4839,7 +4863,7 @@
       <c r="G58" s="2"/>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="349"/>
+      <c r="A59" s="351"/>
       <c r="B59" s="26"/>
       <c r="C59" s="25"/>
       <c r="D59" s="25"/>
@@ -4851,7 +4875,7 @@
       <c r="G59" s="2"/>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="349"/>
+      <c r="A60" s="351"/>
       <c r="B60" s="26"/>
       <c r="C60" s="25"/>
       <c r="D60" s="25"/>
@@ -4863,7 +4887,7 @@
       <c r="G60" s="2"/>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="349"/>
+      <c r="A61" s="351"/>
       <c r="B61" s="26"/>
       <c r="C61" s="25"/>
       <c r="D61" s="25"/>
@@ -4875,7 +4899,7 @@
       <c r="G61" s="2"/>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="349"/>
+      <c r="A62" s="351"/>
       <c r="B62" s="26"/>
       <c r="C62" s="25"/>
       <c r="D62" s="25"/>
@@ -4887,7 +4911,7 @@
       <c r="G62" s="2"/>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="349"/>
+      <c r="A63" s="351"/>
       <c r="B63" s="26"/>
       <c r="C63" s="25"/>
       <c r="D63" s="25"/>
@@ -4899,7 +4923,7 @@
       <c r="G63" s="2"/>
     </row>
     <row r="64" spans="1:8">
-      <c r="A64" s="349"/>
+      <c r="A64" s="351"/>
       <c r="B64" s="26"/>
       <c r="C64" s="25"/>
       <c r="D64" s="25"/>
@@ -4911,7 +4935,7 @@
       <c r="G64" s="2"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="349"/>
+      <c r="A65" s="351"/>
       <c r="B65" s="26"/>
       <c r="C65" s="25"/>
       <c r="D65" s="25"/>
@@ -4923,7 +4947,7 @@
       <c r="G65" s="2"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="349"/>
+      <c r="A66" s="351"/>
       <c r="B66" s="26"/>
       <c r="C66" s="25"/>
       <c r="D66" s="25"/>
@@ -4935,7 +4959,7 @@
       <c r="G66" s="2"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="349"/>
+      <c r="A67" s="351"/>
       <c r="B67" s="26"/>
       <c r="C67" s="25"/>
       <c r="D67" s="25"/>
@@ -4947,7 +4971,7 @@
       <c r="G67" s="2"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="349"/>
+      <c r="A68" s="351"/>
       <c r="B68" s="26"/>
       <c r="C68" s="25"/>
       <c r="D68" s="25"/>
@@ -4959,7 +4983,7 @@
       <c r="G68" s="2"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="349"/>
+      <c r="A69" s="351"/>
       <c r="B69" s="26"/>
       <c r="C69" s="25"/>
       <c r="D69" s="25"/>
@@ -4971,7 +4995,7 @@
       <c r="G69" s="2"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="349"/>
+      <c r="A70" s="351"/>
       <c r="B70" s="26"/>
       <c r="C70" s="25"/>
       <c r="D70" s="25"/>
@@ -4983,7 +5007,7 @@
       <c r="G70" s="2"/>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="349"/>
+      <c r="A71" s="351"/>
       <c r="B71" s="26"/>
       <c r="C71" s="25"/>
       <c r="D71" s="25"/>
@@ -4995,7 +5019,7 @@
       <c r="G71" s="2"/>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="349"/>
+      <c r="A72" s="351"/>
       <c r="B72" s="26"/>
       <c r="C72" s="25"/>
       <c r="D72" s="25"/>
@@ -5007,7 +5031,7 @@
       <c r="G72" s="2"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="349"/>
+      <c r="A73" s="351"/>
       <c r="B73" s="26"/>
       <c r="C73" s="25"/>
       <c r="D73" s="25"/>
@@ -5019,7 +5043,7 @@
       <c r="G73" s="2"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="349"/>
+      <c r="A74" s="351"/>
       <c r="B74" s="26"/>
       <c r="C74" s="25"/>
       <c r="D74" s="25"/>
@@ -5031,7 +5055,7 @@
       <c r="G74" s="2"/>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="349"/>
+      <c r="A75" s="351"/>
       <c r="B75" s="26"/>
       <c r="C75" s="25"/>
       <c r="D75" s="25"/>
@@ -5043,7 +5067,7 @@
       <c r="G75" s="2"/>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="349"/>
+      <c r="A76" s="351"/>
       <c r="B76" s="26"/>
       <c r="C76" s="25"/>
       <c r="D76" s="25"/>
@@ -5055,7 +5079,7 @@
       <c r="G76" s="2"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="349"/>
+      <c r="A77" s="351"/>
       <c r="B77" s="26"/>
       <c r="C77" s="25"/>
       <c r="D77" s="25"/>
@@ -5067,7 +5091,7 @@
       <c r="G77" s="2"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="349"/>
+      <c r="A78" s="351"/>
       <c r="B78" s="26"/>
       <c r="C78" s="25"/>
       <c r="D78" s="25"/>
@@ -5079,7 +5103,7 @@
       <c r="G78" s="2"/>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="349"/>
+      <c r="A79" s="351"/>
       <c r="B79" s="26"/>
       <c r="C79" s="25"/>
       <c r="D79" s="25"/>
@@ -5091,7 +5115,7 @@
       <c r="G79" s="2"/>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="349"/>
+      <c r="A80" s="351"/>
       <c r="B80" s="26"/>
       <c r="C80" s="25"/>
       <c r="D80" s="25"/>
@@ -5103,7 +5127,7 @@
       <c r="G80" s="2"/>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="349"/>
+      <c r="A81" s="351"/>
       <c r="B81" s="26"/>
       <c r="C81" s="25"/>
       <c r="D81" s="25"/>
@@ -5115,7 +5139,7 @@
       <c r="G81" s="2"/>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="349"/>
+      <c r="A82" s="351"/>
       <c r="B82" s="26"/>
       <c r="C82" s="25"/>
       <c r="D82" s="25"/>
@@ -5127,7 +5151,7 @@
       <c r="G82" s="2"/>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="349"/>
+      <c r="A83" s="351"/>
       <c r="B83" s="31"/>
       <c r="C83" s="27">
         <f>SUM(C5:C72)</f>
@@ -5166,8 +5190,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G85"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -5184,33 +5208,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20.25" customHeight="1">
-      <c r="A1" s="348"/>
-      <c r="B1" s="348"/>
-      <c r="C1" s="348"/>
-      <c r="D1" s="348"/>
-      <c r="E1" s="348"/>
-      <c r="F1" s="348"/>
+      <c r="A1" s="350"/>
+      <c r="B1" s="350"/>
+      <c r="C1" s="350"/>
+      <c r="D1" s="350"/>
+      <c r="E1" s="350"/>
+      <c r="F1" s="350"/>
     </row>
     <row r="2" spans="1:7" ht="20.25">
-      <c r="A2" s="349"/>
-      <c r="B2" s="346" t="s">
+      <c r="A2" s="351"/>
+      <c r="B2" s="348" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="346"/>
-      <c r="D2" s="346"/>
-      <c r="E2" s="346"/>
+      <c r="C2" s="348"/>
+      <c r="D2" s="348"/>
+      <c r="E2" s="348"/>
     </row>
     <row r="3" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A3" s="349"/>
-      <c r="B3" s="347" t="s">
-        <v>161</v>
-      </c>
-      <c r="C3" s="347"/>
-      <c r="D3" s="347"/>
-      <c r="E3" s="347"/>
+      <c r="A3" s="351"/>
+      <c r="B3" s="349" t="s">
+        <v>160</v>
+      </c>
+      <c r="C3" s="349"/>
+      <c r="D3" s="349"/>
+      <c r="E3" s="349"/>
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A4" s="349"/>
+      <c r="A4" s="351"/>
       <c r="B4" s="22" t="s">
         <v>0</v>
       </c>
@@ -5228,7 +5252,7 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="349"/>
+      <c r="A5" s="351"/>
       <c r="B5" s="24" t="s">
         <v>3</v>
       </c>
@@ -5246,9 +5270,9 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="349"/>
+      <c r="A6" s="351"/>
       <c r="B6" s="26" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C6" s="247">
         <v>0</v>
@@ -5264,9 +5288,9 @@
       <c r="G6" s="19"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="349"/>
+      <c r="A7" s="351"/>
       <c r="B7" s="26" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C7" s="247">
         <v>1200000</v>
@@ -5282,9 +5306,9 @@
       <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="349"/>
+      <c r="A8" s="351"/>
       <c r="B8" s="26" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C8" s="247">
         <v>500000</v>
@@ -5300,9 +5324,9 @@
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="349"/>
+      <c r="A9" s="351"/>
       <c r="B9" s="26" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C9" s="247">
         <v>2000000</v>
@@ -5315,14 +5339,14 @@
         <v>31238</v>
       </c>
       <c r="F9" s="329" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="349"/>
+      <c r="A10" s="351"/>
       <c r="B10" s="26" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C10" s="249">
         <v>300000</v>
@@ -5338,9 +5362,9 @@
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="349"/>
+      <c r="A11" s="351"/>
       <c r="B11" s="26" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C11" s="247">
         <v>400000</v>
@@ -5356,9 +5380,9 @@
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="349"/>
+      <c r="A12" s="351"/>
       <c r="B12" s="26" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C12" s="247">
         <v>500000</v>
@@ -5374,9 +5398,9 @@
       <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="349"/>
+      <c r="A13" s="351"/>
       <c r="B13" s="26" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C13" s="247">
         <v>0</v>
@@ -5392,9 +5416,9 @@
       <c r="G13" s="30"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="349"/>
+      <c r="A14" s="351"/>
       <c r="B14" s="26" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C14" s="247">
         <v>2000000</v>
@@ -5406,14 +5430,14 @@
         <v>31238</v>
       </c>
       <c r="F14" s="329" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="349"/>
+      <c r="A15" s="351"/>
       <c r="B15" s="26" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C15" s="247">
         <v>500000</v>
@@ -5429,9 +5453,9 @@
       <c r="G15" s="11"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="349"/>
+      <c r="A16" s="351"/>
       <c r="B16" s="26" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C16" s="247">
         <v>500000</v>
@@ -5447,9 +5471,9 @@
       <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="349"/>
+      <c r="A17" s="351"/>
       <c r="B17" s="26" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C17" s="247">
         <v>900000</v>
@@ -5465,9 +5489,9 @@
       <c r="G17" s="2"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="349"/>
+      <c r="A18" s="351"/>
       <c r="B18" s="26" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C18" s="247">
         <v>0</v>
@@ -5483,9 +5507,9 @@
       <c r="G18" s="2"/>
     </row>
     <row r="19" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A19" s="349"/>
+      <c r="A19" s="351"/>
       <c r="B19" s="26" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C19" s="247">
         <v>2000000</v>
@@ -5501,9 +5525,9 @@
       <c r="G19" s="2"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="349"/>
+      <c r="A20" s="351"/>
       <c r="B20" s="26" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C20" s="247">
         <v>600000</v>
@@ -5519,9 +5543,9 @@
       <c r="G20" s="2"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="349"/>
+      <c r="A21" s="351"/>
       <c r="B21" s="26" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C21" s="247">
         <v>300000</v>
@@ -5537,9 +5561,9 @@
       <c r="G21" s="2"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="349"/>
+      <c r="A22" s="351"/>
       <c r="B22" s="26" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C22" s="247">
         <v>800000</v>
@@ -5555,22 +5579,36 @@
       <c r="G22" s="2"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="349"/>
-      <c r="B23" s="26"/>
-      <c r="C23" s="247"/>
-      <c r="D23" s="247"/>
+      <c r="A23" s="351"/>
+      <c r="B23" s="26" t="s">
+        <v>231</v>
+      </c>
+      <c r="C23" s="247">
+        <v>2500000</v>
+      </c>
+      <c r="D23" s="247">
+        <v>0</v>
+      </c>
       <c r="E23" s="248">
         <f>E22+C23-D23</f>
-        <v>31238</v>
-      </c>
-      <c r="F23" s="2"/>
+        <v>2531238</v>
+      </c>
+      <c r="F23" s="329" t="s">
+        <v>232</v>
+      </c>
       <c r="G23" s="2"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="349"/>
-      <c r="B24" s="26"/>
-      <c r="C24" s="247"/>
-      <c r="D24" s="247"/>
+      <c r="A24" s="351"/>
+      <c r="B24" s="26" t="s">
+        <v>231</v>
+      </c>
+      <c r="C24" s="247">
+        <v>1100000</v>
+      </c>
+      <c r="D24" s="247">
+        <v>3600000</v>
+      </c>
       <c r="E24" s="248">
         <f t="shared" si="0"/>
         <v>31238</v>
@@ -5579,7 +5617,7 @@
       <c r="G24" s="2"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="349"/>
+      <c r="A25" s="351"/>
       <c r="B25" s="26"/>
       <c r="C25" s="247"/>
       <c r="D25" s="247"/>
@@ -5591,7 +5629,7 @@
       <c r="G25" s="2"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="349"/>
+      <c r="A26" s="351"/>
       <c r="B26" s="26"/>
       <c r="C26" s="247"/>
       <c r="D26" s="247"/>
@@ -5603,7 +5641,7 @@
       <c r="G26" s="2"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="349"/>
+      <c r="A27" s="351"/>
       <c r="B27" s="26"/>
       <c r="C27" s="247"/>
       <c r="D27" s="247"/>
@@ -5615,7 +5653,7 @@
       <c r="G27" s="21"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="349"/>
+      <c r="A28" s="351"/>
       <c r="B28" s="26"/>
       <c r="C28" s="247"/>
       <c r="D28" s="247"/>
@@ -5627,7 +5665,7 @@
       <c r="G28" s="21"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="349"/>
+      <c r="A29" s="351"/>
       <c r="B29" s="26"/>
       <c r="C29" s="247"/>
       <c r="D29" s="247"/>
@@ -5639,7 +5677,7 @@
       <c r="G29" s="21"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="349"/>
+      <c r="A30" s="351"/>
       <c r="B30" s="26"/>
       <c r="C30" s="247"/>
       <c r="D30" s="247"/>
@@ -5651,7 +5689,7 @@
       <c r="G30" s="21"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="349"/>
+      <c r="A31" s="351"/>
       <c r="B31" s="26"/>
       <c r="C31" s="247"/>
       <c r="D31" s="247"/>
@@ -5663,7 +5701,7 @@
       <c r="G31" s="21"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="349"/>
+      <c r="A32" s="351"/>
       <c r="B32" s="26"/>
       <c r="C32" s="247"/>
       <c r="D32" s="247"/>
@@ -5675,7 +5713,7 @@
       <c r="G32" s="21"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="349"/>
+      <c r="A33" s="351"/>
       <c r="B33" s="26"/>
       <c r="C33" s="247"/>
       <c r="D33" s="249"/>
@@ -5687,7 +5725,7 @@
       <c r="G33" s="21"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="349"/>
+      <c r="A34" s="351"/>
       <c r="B34" s="26"/>
       <c r="C34" s="247"/>
       <c r="D34" s="247"/>
@@ -5699,7 +5737,7 @@
       <c r="G34" s="21"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="349"/>
+      <c r="A35" s="351"/>
       <c r="B35" s="26"/>
       <c r="C35" s="247"/>
       <c r="D35" s="247"/>
@@ -5711,7 +5749,7 @@
       <c r="G35" s="21"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="349"/>
+      <c r="A36" s="351"/>
       <c r="B36" s="26"/>
       <c r="C36" s="247"/>
       <c r="D36" s="247"/>
@@ -5723,7 +5761,7 @@
       <c r="G36" s="21"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="349"/>
+      <c r="A37" s="351"/>
       <c r="B37" s="26"/>
       <c r="C37" s="247"/>
       <c r="D37" s="247"/>
@@ -5735,7 +5773,7 @@
       <c r="G37" s="21"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="349"/>
+      <c r="A38" s="351"/>
       <c r="B38" s="26"/>
       <c r="C38" s="247"/>
       <c r="D38" s="247"/>
@@ -5747,7 +5785,7 @@
       <c r="G38" s="21"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="349"/>
+      <c r="A39" s="351"/>
       <c r="B39" s="26"/>
       <c r="C39" s="247"/>
       <c r="D39" s="247"/>
@@ -5759,7 +5797,7 @@
       <c r="G39" s="21"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="349"/>
+      <c r="A40" s="351"/>
       <c r="B40" s="26"/>
       <c r="C40" s="247"/>
       <c r="D40" s="247"/>
@@ -5771,7 +5809,7 @@
       <c r="G40" s="21"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="349"/>
+      <c r="A41" s="351"/>
       <c r="B41" s="26"/>
       <c r="C41" s="247"/>
       <c r="D41" s="247"/>
@@ -5783,7 +5821,7 @@
       <c r="G41" s="21"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="349"/>
+      <c r="A42" s="351"/>
       <c r="B42" s="26"/>
       <c r="C42" s="247"/>
       <c r="D42" s="247"/>
@@ -5795,7 +5833,7 @@
       <c r="G42" s="21"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="349"/>
+      <c r="A43" s="351"/>
       <c r="B43" s="26"/>
       <c r="C43" s="247"/>
       <c r="D43" s="247"/>
@@ -5807,7 +5845,7 @@
       <c r="G43" s="21"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="349"/>
+      <c r="A44" s="351"/>
       <c r="B44" s="26"/>
       <c r="C44" s="247"/>
       <c r="D44" s="247"/>
@@ -5819,7 +5857,7 @@
       <c r="G44" s="21"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="349"/>
+      <c r="A45" s="351"/>
       <c r="B45" s="26"/>
       <c r="C45" s="247"/>
       <c r="D45" s="247"/>
@@ -5831,7 +5869,7 @@
       <c r="G45" s="21"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="349"/>
+      <c r="A46" s="351"/>
       <c r="B46" s="26"/>
       <c r="C46" s="247"/>
       <c r="D46" s="247"/>
@@ -5843,7 +5881,7 @@
       <c r="G46" s="21"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="349"/>
+      <c r="A47" s="351"/>
       <c r="B47" s="26"/>
       <c r="C47" s="247"/>
       <c r="D47" s="247"/>
@@ -5855,7 +5893,7 @@
       <c r="G47" s="21"/>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="349"/>
+      <c r="A48" s="351"/>
       <c r="B48" s="26"/>
       <c r="C48" s="247"/>
       <c r="D48" s="247"/>
@@ -5867,7 +5905,7 @@
       <c r="G48" s="21"/>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="349"/>
+      <c r="A49" s="351"/>
       <c r="B49" s="26"/>
       <c r="C49" s="247"/>
       <c r="D49" s="247"/>
@@ -5879,7 +5917,7 @@
       <c r="G49" s="21"/>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="349"/>
+      <c r="A50" s="351"/>
       <c r="B50" s="26"/>
       <c r="C50" s="247"/>
       <c r="D50" s="247"/>
@@ -5891,7 +5929,7 @@
       <c r="G50" s="21"/>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="349"/>
+      <c r="A51" s="351"/>
       <c r="B51" s="26"/>
       <c r="C51" s="247"/>
       <c r="D51" s="247"/>
@@ -5903,7 +5941,7 @@
       <c r="G51" s="21"/>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="349"/>
+      <c r="A52" s="351"/>
       <c r="B52" s="26"/>
       <c r="C52" s="247"/>
       <c r="D52" s="247"/>
@@ -5915,7 +5953,7 @@
       <c r="G52" s="21"/>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="349"/>
+      <c r="A53" s="351"/>
       <c r="B53" s="26"/>
       <c r="C53" s="247"/>
       <c r="D53" s="247"/>
@@ -5927,7 +5965,7 @@
       <c r="G53" s="21"/>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="349"/>
+      <c r="A54" s="351"/>
       <c r="B54" s="26"/>
       <c r="C54" s="247"/>
       <c r="D54" s="247"/>
@@ -5939,7 +5977,7 @@
       <c r="G54" s="21"/>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="349"/>
+      <c r="A55" s="351"/>
       <c r="B55" s="26"/>
       <c r="C55" s="247"/>
       <c r="D55" s="247"/>
@@ -5951,7 +5989,7 @@
       <c r="G55" s="21"/>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" s="349"/>
+      <c r="A56" s="351"/>
       <c r="B56" s="26"/>
       <c r="C56" s="247"/>
       <c r="D56" s="247"/>
@@ -5963,7 +6001,7 @@
       <c r="G56" s="21"/>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" s="349"/>
+      <c r="A57" s="351"/>
       <c r="B57" s="26"/>
       <c r="C57" s="247"/>
       <c r="D57" s="247"/>
@@ -5975,7 +6013,7 @@
       <c r="G57" s="21"/>
     </row>
     <row r="58" spans="1:7">
-      <c r="A58" s="349"/>
+      <c r="A58" s="351"/>
       <c r="B58" s="26"/>
       <c r="C58" s="247"/>
       <c r="D58" s="247"/>
@@ -5987,7 +6025,7 @@
       <c r="G58" s="21"/>
     </row>
     <row r="59" spans="1:7">
-      <c r="A59" s="349"/>
+      <c r="A59" s="351"/>
       <c r="B59" s="26"/>
       <c r="C59" s="247"/>
       <c r="D59" s="247"/>
@@ -5998,7 +6036,7 @@
       <c r="F59" s="2"/>
     </row>
     <row r="60" spans="1:7">
-      <c r="A60" s="349"/>
+      <c r="A60" s="351"/>
       <c r="B60" s="26"/>
       <c r="C60" s="247"/>
       <c r="D60" s="247"/>
@@ -6009,7 +6047,7 @@
       <c r="F60" s="2"/>
     </row>
     <row r="61" spans="1:7">
-      <c r="A61" s="349"/>
+      <c r="A61" s="351"/>
       <c r="B61" s="26"/>
       <c r="C61" s="247"/>
       <c r="D61" s="247"/>
@@ -6020,7 +6058,7 @@
       <c r="F61" s="2"/>
     </row>
     <row r="62" spans="1:7">
-      <c r="A62" s="349"/>
+      <c r="A62" s="351"/>
       <c r="B62" s="26"/>
       <c r="C62" s="247"/>
       <c r="D62" s="247"/>
@@ -6031,7 +6069,7 @@
       <c r="F62" s="2"/>
     </row>
     <row r="63" spans="1:7">
-      <c r="A63" s="349"/>
+      <c r="A63" s="351"/>
       <c r="B63" s="26"/>
       <c r="C63" s="247"/>
       <c r="D63" s="247"/>
@@ -6042,7 +6080,7 @@
       <c r="F63" s="2"/>
     </row>
     <row r="64" spans="1:7">
-      <c r="A64" s="349"/>
+      <c r="A64" s="351"/>
       <c r="B64" s="26"/>
       <c r="C64" s="247"/>
       <c r="D64" s="247"/>
@@ -6053,7 +6091,7 @@
       <c r="F64" s="2"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="349"/>
+      <c r="A65" s="351"/>
       <c r="B65" s="26"/>
       <c r="C65" s="247"/>
       <c r="D65" s="247"/>
@@ -6064,7 +6102,7 @@
       <c r="F65" s="2"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="349"/>
+      <c r="A66" s="351"/>
       <c r="B66" s="26"/>
       <c r="C66" s="247"/>
       <c r="D66" s="247"/>
@@ -6075,7 +6113,7 @@
       <c r="F66" s="2"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="349"/>
+      <c r="A67" s="351"/>
       <c r="B67" s="26"/>
       <c r="C67" s="247"/>
       <c r="D67" s="247"/>
@@ -6086,7 +6124,7 @@
       <c r="F67" s="2"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="349"/>
+      <c r="A68" s="351"/>
       <c r="B68" s="26"/>
       <c r="C68" s="247"/>
       <c r="D68" s="247"/>
@@ -6097,7 +6135,7 @@
       <c r="F68" s="2"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="349"/>
+      <c r="A69" s="351"/>
       <c r="B69" s="26"/>
       <c r="C69" s="247"/>
       <c r="D69" s="247"/>
@@ -6108,7 +6146,7 @@
       <c r="F69" s="2"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="349"/>
+      <c r="A70" s="351"/>
       <c r="B70" s="26"/>
       <c r="C70" s="247"/>
       <c r="D70" s="247"/>
@@ -6119,7 +6157,7 @@
       <c r="F70" s="2"/>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="349"/>
+      <c r="A71" s="351"/>
       <c r="B71" s="26"/>
       <c r="C71" s="247"/>
       <c r="D71" s="247"/>
@@ -6130,7 +6168,7 @@
       <c r="F71" s="2"/>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="349"/>
+      <c r="A72" s="351"/>
       <c r="B72" s="26"/>
       <c r="C72" s="247"/>
       <c r="D72" s="247"/>
@@ -6141,7 +6179,7 @@
       <c r="F72" s="2"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="349"/>
+      <c r="A73" s="351"/>
       <c r="B73" s="26"/>
       <c r="C73" s="247"/>
       <c r="D73" s="247"/>
@@ -6152,7 +6190,7 @@
       <c r="F73" s="2"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="349"/>
+      <c r="A74" s="351"/>
       <c r="B74" s="26"/>
       <c r="C74" s="247"/>
       <c r="D74" s="247"/>
@@ -6163,7 +6201,7 @@
       <c r="F74" s="2"/>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="349"/>
+      <c r="A75" s="351"/>
       <c r="B75" s="26"/>
       <c r="C75" s="247"/>
       <c r="D75" s="247"/>
@@ -6174,7 +6212,7 @@
       <c r="F75" s="2"/>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="349"/>
+      <c r="A76" s="351"/>
       <c r="B76" s="26"/>
       <c r="C76" s="247"/>
       <c r="D76" s="247"/>
@@ -6185,7 +6223,7 @@
       <c r="F76" s="2"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="349"/>
+      <c r="A77" s="351"/>
       <c r="B77" s="26"/>
       <c r="C77" s="247"/>
       <c r="D77" s="247"/>
@@ -6196,7 +6234,7 @@
       <c r="F77" s="2"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="349"/>
+      <c r="A78" s="351"/>
       <c r="B78" s="26"/>
       <c r="C78" s="247"/>
       <c r="D78" s="247"/>
@@ -6207,7 +6245,7 @@
       <c r="F78" s="2"/>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="349"/>
+      <c r="A79" s="351"/>
       <c r="B79" s="26"/>
       <c r="C79" s="247"/>
       <c r="D79" s="247"/>
@@ -6219,7 +6257,7 @@
       <c r="G79" s="2"/>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="349"/>
+      <c r="A80" s="351"/>
       <c r="B80" s="26"/>
       <c r="C80" s="247"/>
       <c r="D80" s="247"/>
@@ -6231,7 +6269,7 @@
       <c r="G80" s="2"/>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="349"/>
+      <c r="A81" s="351"/>
       <c r="B81" s="26"/>
       <c r="C81" s="247"/>
       <c r="D81" s="247"/>
@@ -6243,7 +6281,7 @@
       <c r="G81" s="2"/>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="349"/>
+      <c r="A82" s="351"/>
       <c r="B82" s="26"/>
       <c r="C82" s="247"/>
       <c r="D82" s="247"/>
@@ -6255,15 +6293,15 @@
       <c r="G82" s="2"/>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="349"/>
+      <c r="A83" s="351"/>
       <c r="B83" s="268"/>
       <c r="C83" s="248">
         <f>SUM(C5:C72)</f>
-        <v>12531238</v>
+        <v>16131238</v>
       </c>
       <c r="D83" s="248">
         <f>SUM(D5:D77)</f>
-        <v>12500000</v>
+        <v>16100000</v>
       </c>
       <c r="E83" s="248">
         <f>E71</f>
@@ -6318,8 +6356,8 @@
   <dimension ref="A1:X320"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M31" sqref="M31"/>
+      <pane ySplit="5" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q37" sqref="Q37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -6335,67 +6373,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="23.25">
-      <c r="A1" s="354" t="s">
+      <c r="A1" s="356" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="354"/>
-      <c r="C1" s="354"/>
-      <c r="D1" s="354"/>
-      <c r="E1" s="354"/>
-      <c r="F1" s="354"/>
-      <c r="G1" s="354"/>
-      <c r="H1" s="354"/>
-      <c r="I1" s="354"/>
-      <c r="J1" s="354"/>
-      <c r="K1" s="354"/>
-      <c r="L1" s="354"/>
-      <c r="M1" s="354"/>
-      <c r="N1" s="354"/>
-      <c r="O1" s="354"/>
-      <c r="P1" s="354"/>
-      <c r="Q1" s="354"/>
+      <c r="B1" s="356"/>
+      <c r="C1" s="356"/>
+      <c r="D1" s="356"/>
+      <c r="E1" s="356"/>
+      <c r="F1" s="356"/>
+      <c r="G1" s="356"/>
+      <c r="H1" s="356"/>
+      <c r="I1" s="356"/>
+      <c r="J1" s="356"/>
+      <c r="K1" s="356"/>
+      <c r="L1" s="356"/>
+      <c r="M1" s="356"/>
+      <c r="N1" s="356"/>
+      <c r="O1" s="356"/>
+      <c r="P1" s="356"/>
+      <c r="Q1" s="356"/>
     </row>
     <row r="2" spans="1:24" s="65" customFormat="1" ht="18">
-      <c r="A2" s="355" t="s">
+      <c r="A2" s="357" t="s">
         <v>93</v>
       </c>
-      <c r="B2" s="355"/>
-      <c r="C2" s="355"/>
-      <c r="D2" s="355"/>
-      <c r="E2" s="355"/>
-      <c r="F2" s="355"/>
-      <c r="G2" s="355"/>
-      <c r="H2" s="355"/>
-      <c r="I2" s="355"/>
-      <c r="J2" s="355"/>
-      <c r="K2" s="355"/>
-      <c r="L2" s="355"/>
-      <c r="M2" s="355"/>
-      <c r="N2" s="355"/>
-      <c r="O2" s="355"/>
-      <c r="P2" s="355"/>
-      <c r="Q2" s="355"/>
+      <c r="B2" s="357"/>
+      <c r="C2" s="357"/>
+      <c r="D2" s="357"/>
+      <c r="E2" s="357"/>
+      <c r="F2" s="357"/>
+      <c r="G2" s="357"/>
+      <c r="H2" s="357"/>
+      <c r="I2" s="357"/>
+      <c r="J2" s="357"/>
+      <c r="K2" s="357"/>
+      <c r="L2" s="357"/>
+      <c r="M2" s="357"/>
+      <c r="N2" s="357"/>
+      <c r="O2" s="357"/>
+      <c r="P2" s="357"/>
+      <c r="Q2" s="357"/>
     </row>
     <row r="3" spans="1:24" s="66" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="356" t="s">
-        <v>162</v>
-      </c>
-      <c r="B3" s="357"/>
-      <c r="C3" s="357"/>
-      <c r="D3" s="357"/>
-      <c r="E3" s="357"/>
-      <c r="F3" s="357"/>
-      <c r="G3" s="357"/>
-      <c r="H3" s="357"/>
-      <c r="I3" s="357"/>
-      <c r="J3" s="357"/>
-      <c r="K3" s="357"/>
-      <c r="L3" s="357"/>
-      <c r="M3" s="357"/>
-      <c r="N3" s="357"/>
-      <c r="O3" s="357"/>
-      <c r="P3" s="357"/>
-      <c r="Q3" s="358"/>
+      <c r="A3" s="358" t="s">
+        <v>161</v>
+      </c>
+      <c r="B3" s="359"/>
+      <c r="C3" s="359"/>
+      <c r="D3" s="359"/>
+      <c r="E3" s="359"/>
+      <c r="F3" s="359"/>
+      <c r="G3" s="359"/>
+      <c r="H3" s="359"/>
+      <c r="I3" s="359"/>
+      <c r="J3" s="359"/>
+      <c r="K3" s="359"/>
+      <c r="L3" s="359"/>
+      <c r="M3" s="359"/>
+      <c r="N3" s="359"/>
+      <c r="O3" s="359"/>
+      <c r="P3" s="359"/>
+      <c r="Q3" s="360"/>
       <c r="S3" s="50"/>
       <c r="T3" s="7"/>
       <c r="U3" s="7"/>
@@ -6404,52 +6442,52 @@
       <c r="X3" s="16"/>
     </row>
     <row r="4" spans="1:24" s="67" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A4" s="359" t="s">
+      <c r="A4" s="361" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="361" t="s">
+      <c r="B4" s="363" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="350" t="s">
+      <c r="C4" s="352" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="350" t="s">
+      <c r="D4" s="352" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="350" t="s">
+      <c r="E4" s="352" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="350" t="s">
+      <c r="F4" s="352" t="s">
         <v>123</v>
       </c>
-      <c r="G4" s="350" t="s">
+      <c r="G4" s="352" t="s">
         <v>34</v>
       </c>
-      <c r="H4" s="350" t="s">
+      <c r="H4" s="352" t="s">
         <v>152</v>
       </c>
-      <c r="I4" s="350" t="s">
+      <c r="I4" s="352" t="s">
         <v>126</v>
       </c>
-      <c r="J4" s="350" t="s">
+      <c r="J4" s="352" t="s">
         <v>35</v>
       </c>
-      <c r="K4" s="350" t="s">
+      <c r="K4" s="352" t="s">
         <v>36</v>
       </c>
-      <c r="L4" s="350" t="s">
+      <c r="L4" s="352" t="s">
         <v>37</v>
       </c>
-      <c r="M4" s="350" t="s">
-        <v>210</v>
-      </c>
-      <c r="N4" s="350" t="s">
+      <c r="M4" s="352" t="s">
+        <v>207</v>
+      </c>
+      <c r="N4" s="352" t="s">
         <v>132</v>
       </c>
-      <c r="O4" s="352" t="s">
+      <c r="O4" s="354" t="s">
         <v>38</v>
       </c>
-      <c r="P4" s="363" t="s">
+      <c r="P4" s="365" t="s">
         <v>58</v>
       </c>
       <c r="Q4" s="125" t="s">
@@ -6462,22 +6500,22 @@
       <c r="W4" s="69"/>
     </row>
     <row r="5" spans="1:24" s="67" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A5" s="360"/>
-      <c r="B5" s="362"/>
-      <c r="C5" s="351"/>
-      <c r="D5" s="351"/>
-      <c r="E5" s="351"/>
-      <c r="F5" s="351"/>
-      <c r="G5" s="351"/>
-      <c r="H5" s="351"/>
-      <c r="I5" s="351"/>
-      <c r="J5" s="351"/>
-      <c r="K5" s="351"/>
-      <c r="L5" s="351"/>
-      <c r="M5" s="351"/>
-      <c r="N5" s="351"/>
-      <c r="O5" s="353"/>
-      <c r="P5" s="364"/>
+      <c r="A5" s="362"/>
+      <c r="B5" s="364"/>
+      <c r="C5" s="353"/>
+      <c r="D5" s="353"/>
+      <c r="E5" s="353"/>
+      <c r="F5" s="353"/>
+      <c r="G5" s="353"/>
+      <c r="H5" s="353"/>
+      <c r="I5" s="353"/>
+      <c r="J5" s="353"/>
+      <c r="K5" s="353"/>
+      <c r="L5" s="353"/>
+      <c r="M5" s="353"/>
+      <c r="N5" s="353"/>
+      <c r="O5" s="355"/>
+      <c r="P5" s="366"/>
       <c r="Q5" s="126" t="s">
         <v>39</v>
       </c>
@@ -6490,7 +6528,7 @@
     </row>
     <row r="6" spans="1:24" s="13" customFormat="1">
       <c r="A6" s="74" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B6" s="75">
         <v>500</v>
@@ -6532,7 +6570,7 @@
     </row>
     <row r="7" spans="1:24" s="13" customFormat="1">
       <c r="A7" s="74" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B7" s="75">
         <v>900</v>
@@ -6572,7 +6610,7 @@
     </row>
     <row r="8" spans="1:24" s="13" customFormat="1">
       <c r="A8" s="74" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B8" s="82">
         <v>1000</v>
@@ -6614,7 +6652,7 @@
     </row>
     <row r="9" spans="1:24" s="13" customFormat="1">
       <c r="A9" s="74" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B9" s="82">
         <v>900</v>
@@ -6658,7 +6696,7 @@
     </row>
     <row r="10" spans="1:24" s="13" customFormat="1">
       <c r="A10" s="74" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B10" s="82">
         <v>500</v>
@@ -6700,7 +6738,7 @@
     </row>
     <row r="11" spans="1:24" s="13" customFormat="1">
       <c r="A11" s="74" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B11" s="82">
         <v>500</v>
@@ -6740,7 +6778,7 @@
     </row>
     <row r="12" spans="1:24" s="13" customFormat="1">
       <c r="A12" s="74" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B12" s="82">
         <v>1400</v>
@@ -6786,7 +6824,7 @@
     </row>
     <row r="13" spans="1:24" s="13" customFormat="1">
       <c r="A13" s="74" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B13" s="82">
         <v>200</v>
@@ -6830,7 +6868,7 @@
     </row>
     <row r="14" spans="1:24" s="13" customFormat="1">
       <c r="A14" s="74" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B14" s="82">
         <v>200</v>
@@ -6864,7 +6902,7 @@
     </row>
     <row r="15" spans="1:24" s="13" customFormat="1">
       <c r="A15" s="74" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B15" s="82">
         <v>1200</v>
@@ -6904,7 +6942,7 @@
     </row>
     <row r="16" spans="1:24" s="13" customFormat="1">
       <c r="A16" s="74" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B16" s="82">
         <v>1000</v>
@@ -6944,7 +6982,7 @@
     </row>
     <row r="17" spans="1:23" s="13" customFormat="1">
       <c r="A17" s="74" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B17" s="82">
         <v>600</v>
@@ -6986,7 +7024,7 @@
     </row>
     <row r="18" spans="1:23" s="13" customFormat="1">
       <c r="A18" s="74" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B18" s="82">
         <v>1000</v>
@@ -7028,7 +7066,7 @@
     </row>
     <row r="19" spans="1:23" s="13" customFormat="1">
       <c r="A19" s="74" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B19" s="82">
         <v>500</v>
@@ -7068,7 +7106,7 @@
     </row>
     <row r="20" spans="1:23" s="13" customFormat="1">
       <c r="A20" s="74" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B20" s="82">
         <v>900</v>
@@ -7114,7 +7152,7 @@
     </row>
     <row r="21" spans="1:23" s="13" customFormat="1">
       <c r="A21" s="74" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="B21" s="82">
         <v>500</v>
@@ -7149,17 +7187,29 @@
       <c r="S21" s="6"/>
     </row>
     <row r="22" spans="1:23" s="13" customFormat="1">
-      <c r="A22" s="74"/>
-      <c r="B22" s="82"/>
+      <c r="A22" s="74" t="s">
+        <v>231</v>
+      </c>
+      <c r="B22" s="82">
+        <v>1000</v>
+      </c>
       <c r="C22" s="75"/>
       <c r="D22" s="83"/>
-      <c r="E22" s="83"/>
+      <c r="E22" s="83">
+        <v>180</v>
+      </c>
       <c r="F22" s="83"/>
-      <c r="G22" s="83"/>
+      <c r="G22" s="83">
+        <v>120</v>
+      </c>
       <c r="H22" s="83"/>
       <c r="I22" s="83"/>
-      <c r="J22" s="83"/>
-      <c r="K22" s="83"/>
+      <c r="J22" s="83">
+        <v>30</v>
+      </c>
+      <c r="K22" s="83">
+        <v>400</v>
+      </c>
       <c r="L22" s="83"/>
       <c r="M22" s="83"/>
       <c r="N22" s="114"/>
@@ -7167,7 +7217,7 @@
       <c r="P22" s="85"/>
       <c r="Q22" s="79">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1730</v>
       </c>
       <c r="R22" s="80"/>
       <c r="S22" s="6"/>
@@ -7518,7 +7568,7 @@
       </c>
       <c r="B37" s="100">
         <f t="shared" ref="B37:H37" si="1">SUM(B6:B36)</f>
-        <v>11800</v>
+        <v>12800</v>
       </c>
       <c r="C37" s="281">
         <f t="shared" si="1"/>
@@ -7530,7 +7580,7 @@
       </c>
       <c r="E37" s="101">
         <f t="shared" si="1"/>
-        <v>4360</v>
+        <v>4540</v>
       </c>
       <c r="F37" s="101">
         <f t="shared" si="1"/>
@@ -7538,7 +7588,7 @@
       </c>
       <c r="G37" s="101">
         <f t="shared" si="1"/>
-        <v>2840</v>
+        <v>2960</v>
       </c>
       <c r="H37" s="101">
         <f t="shared" si="1"/>
@@ -7547,11 +7597,11 @@
       <c r="I37" s="101"/>
       <c r="J37" s="101">
         <f>SUM(J6:J36)</f>
-        <v>490</v>
+        <v>520</v>
       </c>
       <c r="K37" s="101">
         <f>SUM(K6:K36)</f>
-        <v>5760</v>
+        <v>6160</v>
       </c>
       <c r="L37" s="101"/>
       <c r="M37" s="101">
@@ -7572,7 +7622,7 @@
       </c>
       <c r="Q37" s="103">
         <f>SUM(Q6:Q36)</f>
-        <v>34030</v>
+        <v>35760</v>
       </c>
       <c r="S37" s="224" t="s">
         <v>43</v>
@@ -9576,10 +9626,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A2:Q2"/>
@@ -9595,6 +9641,10 @@
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0" header="0" footer="0"/>
@@ -9608,8 +9658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CS1357"/>
   <sheetViews>
-    <sheetView topLeftCell="A101" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D121" sqref="D121"/>
+    <sheetView topLeftCell="A54" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D68" sqref="D68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -9636,14 +9686,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:97" ht="19.5">
-      <c r="A1" s="368" t="s">
+      <c r="A1" s="370" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="369"/>
-      <c r="C1" s="369"/>
-      <c r="D1" s="369"/>
-      <c r="E1" s="369"/>
-      <c r="F1" s="370"/>
+      <c r="B1" s="371"/>
+      <c r="C1" s="371"/>
+      <c r="D1" s="371"/>
+      <c r="E1" s="371"/>
+      <c r="F1" s="372"/>
       <c r="G1" s="60"/>
       <c r="H1" s="60"/>
       <c r="I1" s="142"/>
@@ -9737,14 +9787,14 @@
       <c r="CS1" s="137"/>
     </row>
     <row r="2" spans="1:97" ht="15" customHeight="1">
-      <c r="A2" s="371" t="s">
-        <v>163</v>
-      </c>
-      <c r="B2" s="372"/>
-      <c r="C2" s="372"/>
-      <c r="D2" s="372"/>
-      <c r="E2" s="372"/>
-      <c r="F2" s="373"/>
+      <c r="A2" s="373" t="s">
+        <v>162</v>
+      </c>
+      <c r="B2" s="374"/>
+      <c r="C2" s="374"/>
+      <c r="D2" s="374"/>
+      <c r="E2" s="374"/>
+      <c r="F2" s="375"/>
       <c r="G2" s="60"/>
       <c r="H2" s="60"/>
       <c r="I2" s="142"/>
@@ -9838,14 +9888,14 @@
       <c r="CS2" s="137"/>
     </row>
     <row r="3" spans="1:97" ht="13.5" thickBot="1">
-      <c r="A3" s="374" t="s">
+      <c r="A3" s="376" t="s">
         <v>84</v>
       </c>
-      <c r="B3" s="375"/>
-      <c r="C3" s="375"/>
-      <c r="D3" s="375"/>
-      <c r="E3" s="375"/>
-      <c r="F3" s="376"/>
+      <c r="B3" s="377"/>
+      <c r="C3" s="377"/>
+      <c r="D3" s="377"/>
+      <c r="E3" s="377"/>
+      <c r="F3" s="378"/>
       <c r="G3" s="60"/>
       <c r="H3" s="60"/>
       <c r="I3" s="142"/>
@@ -10053,7 +10103,7 @@
     </row>
     <row r="5" spans="1:97">
       <c r="A5" s="180" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B5" s="48">
         <v>1010900</v>
@@ -10163,7 +10213,7 @@
     </row>
     <row r="6" spans="1:97">
       <c r="A6" s="181" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B6" s="49">
         <v>632240</v>
@@ -10273,7 +10323,7 @@
     </row>
     <row r="7" spans="1:97">
       <c r="A7" s="181" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B7" s="49">
         <v>427020</v>
@@ -10383,7 +10433,7 @@
     </row>
     <row r="8" spans="1:97">
       <c r="A8" s="181" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B8" s="49">
         <v>820260</v>
@@ -10493,7 +10543,7 @@
     </row>
     <row r="9" spans="1:97">
       <c r="A9" s="181" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B9" s="49">
         <v>748430</v>
@@ -10603,7 +10653,7 @@
     </row>
     <row r="10" spans="1:97">
       <c r="A10" s="181" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B10" s="49">
         <v>1391110</v>
@@ -10713,7 +10763,7 @@
     </row>
     <row r="11" spans="1:97">
       <c r="A11" s="181" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B11" s="49">
         <v>893050</v>
@@ -10823,7 +10873,7 @@
     </row>
     <row r="12" spans="1:97">
       <c r="A12" s="181" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B12" s="49">
         <v>1661690</v>
@@ -10933,7 +10983,7 @@
     </row>
     <row r="13" spans="1:97">
       <c r="A13" s="181" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B13" s="49">
         <v>128380</v>
@@ -11043,7 +11093,7 @@
     </row>
     <row r="14" spans="1:97">
       <c r="A14" s="181" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B14" s="49">
         <v>670370</v>
@@ -11153,7 +11203,7 @@
     </row>
     <row r="15" spans="1:97">
       <c r="A15" s="181" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B15" s="49">
         <v>680800</v>
@@ -11263,7 +11313,7 @@
     </row>
     <row r="16" spans="1:97">
       <c r="A16" s="181" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B16" s="49">
         <v>918070</v>
@@ -11373,7 +11423,7 @@
     </row>
     <row r="17" spans="1:97">
       <c r="A17" s="181" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B17" s="49">
         <v>563290</v>
@@ -11483,7 +11533,7 @@
     </row>
     <row r="18" spans="1:97">
       <c r="A18" s="181" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B18" s="49">
         <v>394340</v>
@@ -11593,7 +11643,7 @@
     </row>
     <row r="19" spans="1:97">
       <c r="A19" s="181" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B19" s="49">
         <v>646650</v>
@@ -11703,7 +11753,7 @@
     </row>
     <row r="20" spans="1:97">
       <c r="A20" s="181" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="B20" s="49">
         <v>541200</v>
@@ -11812,13 +11862,21 @@
       <c r="CS20" s="137"/>
     </row>
     <row r="21" spans="1:97">
-      <c r="A21" s="181"/>
-      <c r="B21" s="49"/>
-      <c r="C21" s="52"/>
-      <c r="D21" s="49"/>
+      <c r="A21" s="181" t="s">
+        <v>231</v>
+      </c>
+      <c r="B21" s="49">
+        <v>1309930</v>
+      </c>
+      <c r="C21" s="52">
+        <v>1167350</v>
+      </c>
+      <c r="D21" s="49">
+        <v>1730</v>
+      </c>
       <c r="E21" s="49">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1169080</v>
       </c>
       <c r="F21" s="226"/>
       <c r="G21" s="237"/>
@@ -13041,23 +13099,23 @@
       </c>
       <c r="B33" s="251">
         <f>SUM(B5:B32)</f>
-        <v>12127800</v>
+        <v>13437730</v>
       </c>
       <c r="C33" s="252">
         <f>SUM(C5:C32)</f>
-        <v>11909720</v>
+        <v>13077070</v>
       </c>
       <c r="D33" s="251">
         <f>SUM(D5:D32)</f>
-        <v>29270</v>
+        <v>31000</v>
       </c>
       <c r="E33" s="251">
         <f>SUM(E5:E32)</f>
-        <v>11938990</v>
+        <v>13108070</v>
       </c>
       <c r="F33" s="251">
         <f>B33-E33</f>
-        <v>188810</v>
+        <v>329660</v>
       </c>
       <c r="G33" s="253"/>
       <c r="H33" s="138"/>
@@ -13252,12 +13310,12 @@
     </row>
     <row r="35" spans="1:97" ht="13.5" thickBot="1">
       <c r="A35" s="132"/>
-      <c r="B35" s="367" t="s">
+      <c r="B35" s="369" t="s">
         <v>21</v>
       </c>
-      <c r="C35" s="367"/>
-      <c r="D35" s="367"/>
-      <c r="E35" s="367"/>
+      <c r="C35" s="369"/>
+      <c r="D35" s="369"/>
+      <c r="E35" s="369"/>
       <c r="F35" s="133"/>
       <c r="G35" s="138"/>
       <c r="H35" s="138"/>
@@ -13477,7 +13535,7 @@
         <v>5240</v>
       </c>
       <c r="E37" s="263" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F37" s="133"/>
       <c r="G37" s="138"/>
@@ -13695,7 +13753,7 @@
         <v>4000</v>
       </c>
       <c r="E39" s="175" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F39" s="131"/>
       <c r="G39" s="138"/>
@@ -13802,7 +13860,7 @@
         <v>200</v>
       </c>
       <c r="E40" s="175" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="F40" s="131"/>
       <c r="G40" s="144"/>
@@ -13902,16 +13960,16 @@
         <v>82</v>
       </c>
       <c r="B41" s="57" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C41" s="118" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D41" s="206">
         <v>35000</v>
       </c>
       <c r="E41" s="176" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F41" s="136"/>
       <c r="G41" s="145"/>
@@ -14011,14 +14069,14 @@
         <v>82</v>
       </c>
       <c r="B42" s="57" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C42" s="118"/>
       <c r="D42" s="206">
-        <v>800</v>
+        <v>7800</v>
       </c>
       <c r="E42" s="176" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="F42" s="137"/>
       <c r="G42" s="146"/>
@@ -14446,7 +14504,7 @@
         <v>535090</v>
       </c>
       <c r="E46" s="297" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="F46" s="130"/>
       <c r="G46" s="137"/>
@@ -14565,10 +14623,10 @@
         <v>1765002244</v>
       </c>
       <c r="D47" s="300">
-        <v>300000</v>
+        <v>280000</v>
       </c>
       <c r="E47" s="301" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="F47" s="131"/>
       <c r="G47" s="137"/>
@@ -14687,10 +14745,10 @@
         <v>1716697790</v>
       </c>
       <c r="D48" s="300">
-        <v>200000</v>
+        <v>249990</v>
       </c>
       <c r="E48" s="303" t="s">
-        <v>216</v>
+        <v>231</v>
       </c>
       <c r="F48" s="131"/>
       <c r="G48" s="137"/>
@@ -14812,7 +14870,7 @@
         <v>482800</v>
       </c>
       <c r="E49" s="301" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="F49" s="131"/>
       <c r="G49" s="137"/>
@@ -14934,7 +14992,7 @@
         <v>88650</v>
       </c>
       <c r="E50" s="303" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F50" s="131"/>
       <c r="G50" s="137"/>
@@ -15056,7 +15114,7 @@
         <v>37450</v>
       </c>
       <c r="E51" s="305" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F51" s="131"/>
       <c r="G51" s="137"/>
@@ -15178,7 +15236,7 @@
         <v>75900</v>
       </c>
       <c r="E52" s="303" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F52" s="131"/>
       <c r="G52" s="137"/>
@@ -15297,10 +15355,10 @@
         <v>1749334499</v>
       </c>
       <c r="D53" s="300">
-        <v>61100</v>
+        <v>102200</v>
       </c>
       <c r="E53" s="301" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="F53" s="131"/>
       <c r="G53" s="137"/>
@@ -15422,7 +15480,7 @@
         <v>3350</v>
       </c>
       <c r="E54" s="305" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F54" s="131"/>
       <c r="G54" s="137"/>
@@ -15882,7 +15940,7 @@
         <v>62000</v>
       </c>
       <c r="E58" s="310" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F58" s="131"/>
       <c r="G58" s="137"/>
@@ -16367,10 +16425,10 @@
         <v>1774412324</v>
       </c>
       <c r="D62" s="290">
-        <v>29180</v>
+        <v>47440</v>
       </c>
       <c r="E62" s="310" t="s">
-        <v>153</v>
+        <v>231</v>
       </c>
       <c r="F62" s="130"/>
       <c r="G62" s="137"/>
@@ -16492,7 +16550,7 @@
         <v>15000</v>
       </c>
       <c r="E63" s="310" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F63" s="131"/>
       <c r="G63" s="137"/>
@@ -16614,7 +16672,7 @@
         <v>5000</v>
       </c>
       <c r="E64" s="309" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F64" s="131"/>
       <c r="G64" s="137"/>
@@ -16727,14 +16785,14 @@
         <v>76</v>
       </c>
       <c r="B65" s="292" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C65" s="289"/>
       <c r="D65" s="290">
         <v>220</v>
       </c>
       <c r="E65" s="310" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="F65" s="131"/>
       <c r="G65" s="137"/>
@@ -16844,17 +16902,17 @@
     </row>
     <row r="66" spans="1:97">
       <c r="A66" s="287" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="B66" s="292" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="C66" s="289"/>
       <c r="D66" s="290">
         <v>10000</v>
       </c>
       <c r="E66" s="310" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="F66" s="131"/>
       <c r="G66" s="137"/>
@@ -16967,14 +17025,14 @@
         <v>76</v>
       </c>
       <c r="B67" s="288" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C67" s="289"/>
       <c r="D67" s="290">
         <v>1290</v>
       </c>
       <c r="E67" s="310" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="F67" s="131"/>
       <c r="G67" s="137"/>
@@ -17083,11 +17141,19 @@
       <c r="CS67" s="137"/>
     </row>
     <row r="68" spans="1:97">
-      <c r="A68" s="287"/>
-      <c r="B68" s="288"/>
+      <c r="A68" s="287" t="s">
+        <v>81</v>
+      </c>
+      <c r="B68" s="288" t="s">
+        <v>235</v>
+      </c>
       <c r="C68" s="289"/>
-      <c r="D68" s="290"/>
-      <c r="E68" s="291"/>
+      <c r="D68" s="290">
+        <v>63600</v>
+      </c>
+      <c r="E68" s="291" t="s">
+        <v>231</v>
+      </c>
       <c r="F68" s="131"/>
       <c r="G68" s="137"/>
       <c r="H68" s="186" t="s">
@@ -17541,10 +17607,10 @@
         <v>1750137332</v>
       </c>
       <c r="D72" s="315">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="E72" s="317" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="F72" s="133"/>
       <c r="G72" s="137"/>
@@ -17663,10 +17729,10 @@
         <v>1737600335</v>
       </c>
       <c r="D73" s="315">
-        <v>21820</v>
+        <v>16820</v>
       </c>
       <c r="E73" s="319" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="F73" s="133"/>
       <c r="G73" s="137"/>
@@ -17779,14 +17845,14 @@
         <v>108</v>
       </c>
       <c r="B74" s="323" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C74" s="314"/>
       <c r="D74" s="315">
         <v>23770</v>
       </c>
       <c r="E74" s="317" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F74" s="133"/>
       <c r="G74" s="137"/>
@@ -17896,17 +17962,17 @@
     </row>
     <row r="75" spans="1:97">
       <c r="A75" s="312" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="B75" s="313" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C75" s="320"/>
       <c r="D75" s="315">
         <v>10000</v>
       </c>
       <c r="E75" s="319" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="F75" s="131"/>
       <c r="G75" s="137"/>
@@ -18028,7 +18094,7 @@
         <v>1960</v>
       </c>
       <c r="E76" s="317" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="F76" s="131"/>
       <c r="G76" s="137"/>
@@ -18272,7 +18338,7 @@
         <v>16940</v>
       </c>
       <c r="E78" s="316" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="F78" s="267"/>
       <c r="G78" s="137"/>
@@ -18394,7 +18460,7 @@
         <v>29000</v>
       </c>
       <c r="E79" s="319" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F79" s="131"/>
       <c r="G79" s="137"/>
@@ -18507,19 +18573,19 @@
         <v>79</v>
       </c>
       <c r="B80" s="313" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C80" s="314"/>
       <c r="D80" s="315">
         <v>15000</v>
       </c>
       <c r="E80" s="317" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F80" s="137"/>
       <c r="G80" s="137"/>
       <c r="H80" s="186" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I80" s="55">
         <v>1707479778</v>
@@ -18746,14 +18812,14 @@
     </row>
     <row r="82" spans="1:97">
       <c r="A82" s="312" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="B82" s="313" t="s">
         <v>236</v>
       </c>
       <c r="C82" s="314"/>
       <c r="D82" s="315">
-        <v>2100</v>
+        <v>10000</v>
       </c>
       <c r="E82" s="316" t="s">
         <v>231</v>
@@ -18878,7 +18944,7 @@
         <v>245000</v>
       </c>
       <c r="E83" s="319" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="F83" s="131"/>
       <c r="G83" s="137"/>
@@ -19110,17 +19176,17 @@
     </row>
     <row r="85" spans="1:97">
       <c r="A85" s="312" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B85" s="324" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C85" s="314"/>
       <c r="D85" s="315">
-        <v>70000</v>
+        <v>20000</v>
       </c>
       <c r="E85" s="316" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="F85" s="131"/>
       <c r="G85" s="137"/>
@@ -19223,14 +19289,14 @@
         <v>103</v>
       </c>
       <c r="B86" s="322" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C86" s="314"/>
       <c r="D86" s="315">
         <v>6500</v>
       </c>
       <c r="E86" s="319" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F86" s="131"/>
       <c r="G86" s="137"/>
@@ -19445,14 +19511,14 @@
         <v>103</v>
       </c>
       <c r="B88" s="324" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C88" s="314"/>
       <c r="D88" s="315">
         <v>40000</v>
       </c>
       <c r="E88" s="319" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F88" s="267"/>
       <c r="G88" s="137"/>
@@ -19552,17 +19618,17 @@
     </row>
     <row r="89" spans="1:97">
       <c r="A89" s="312" t="s">
+        <v>165</v>
+      </c>
+      <c r="B89" s="324" t="s">
         <v>166</v>
-      </c>
-      <c r="B89" s="324" t="s">
-        <v>167</v>
       </c>
       <c r="C89" s="314"/>
       <c r="D89" s="315">
         <v>63000</v>
       </c>
       <c r="E89" s="319" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F89" s="131"/>
       <c r="G89" s="137"/>
@@ -19662,17 +19728,17 @@
     </row>
     <row r="90" spans="1:97">
       <c r="A90" s="325" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B90" s="313" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C90" s="314"/>
       <c r="D90" s="315">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="E90" s="317" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="F90" s="131"/>
       <c r="G90" s="137"/>
@@ -19784,7 +19850,7 @@
         <v>63000</v>
       </c>
       <c r="E91" s="319" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F91" s="137"/>
       <c r="G91" s="137"/>
@@ -19883,11 +19949,19 @@
       <c r="CS91" s="137"/>
     </row>
     <row r="92" spans="1:97">
-      <c r="A92" s="312"/>
-      <c r="B92" s="313"/>
+      <c r="A92" s="312" t="s">
+        <v>230</v>
+      </c>
+      <c r="B92" s="313" t="s">
+        <v>237</v>
+      </c>
       <c r="C92" s="314"/>
-      <c r="D92" s="315"/>
-      <c r="E92" s="316"/>
+      <c r="D92" s="315">
+        <v>47000</v>
+      </c>
+      <c r="E92" s="316" t="s">
+        <v>231</v>
+      </c>
       <c r="F92" s="267"/>
       <c r="G92" s="137"/>
       <c r="H92" s="186"/>
@@ -22244,7 +22318,7 @@
         <v>47000</v>
       </c>
       <c r="E115" s="178" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="F115" s="137"/>
       <c r="G115" s="137"/>
@@ -22669,14 +22743,14 @@
       <c r="CS118" s="137"/>
     </row>
     <row r="119" spans="1:97" ht="13.5" thickBot="1">
-      <c r="A119" s="365" t="s">
+      <c r="A119" s="367" t="s">
         <v>27</v>
       </c>
-      <c r="B119" s="366"/>
-      <c r="C119" s="377"/>
+      <c r="B119" s="368"/>
+      <c r="C119" s="379"/>
       <c r="D119" s="208">
         <f>SUM(D37:D118)</f>
-        <v>2848900</v>
+        <v>2989750</v>
       </c>
       <c r="E119" s="204"/>
       <c r="F119" s="137"/>
@@ -22876,14 +22950,14 @@
       <c r="CS120" s="137"/>
     </row>
     <row r="121" spans="1:97" ht="13.5" thickBot="1">
-      <c r="A121" s="365" t="s">
+      <c r="A121" s="367" t="s">
         <v>28</v>
       </c>
-      <c r="B121" s="366"/>
-      <c r="C121" s="366"/>
+      <c r="B121" s="368"/>
+      <c r="C121" s="368"/>
       <c r="D121" s="208">
         <f>D119+M121</f>
-        <v>2848900</v>
+        <v>2989750</v>
       </c>
       <c r="E121" s="204"/>
       <c r="F121" s="137"/>
@@ -34116,8 +34190,8 @@
   </sheetPr>
   <dimension ref="A1:Y207"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:E34"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -34136,35 +34210,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="26.25">
-      <c r="A1" s="381" t="s">
+      <c r="A1" s="383" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="382"/>
-      <c r="C1" s="382"/>
-      <c r="D1" s="382"/>
-      <c r="E1" s="383"/>
+      <c r="B1" s="384"/>
+      <c r="C1" s="384"/>
+      <c r="D1" s="384"/>
+      <c r="E1" s="385"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
     </row>
     <row r="2" spans="1:25" ht="21.75">
-      <c r="A2" s="387" t="s">
+      <c r="A2" s="389" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="388"/>
-      <c r="C2" s="388"/>
-      <c r="D2" s="388"/>
-      <c r="E2" s="389"/>
+      <c r="B2" s="390"/>
+      <c r="C2" s="390"/>
+      <c r="D2" s="390"/>
+      <c r="E2" s="391"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
     </row>
     <row r="3" spans="1:25" ht="23.25">
-      <c r="A3" s="384" t="s">
-        <v>230</v>
-      </c>
-      <c r="B3" s="385"/>
-      <c r="C3" s="385"/>
-      <c r="D3" s="385"/>
-      <c r="E3" s="386"/>
+      <c r="A3" s="386" t="s">
+        <v>233</v>
+      </c>
+      <c r="B3" s="387"/>
+      <c r="C3" s="387"/>
+      <c r="D3" s="387"/>
+      <c r="E3" s="388"/>
       <c r="F3" s="5"/>
       <c r="G3" s="10"/>
       <c r="H3" s="7"/>
@@ -34187,15 +34261,15 @@
       <c r="Y3" s="7"/>
     </row>
     <row r="4" spans="1:25" ht="23.25">
-      <c r="A4" s="390" t="s">
+      <c r="A4" s="392" t="s">
         <v>96</v>
       </c>
-      <c r="B4" s="391"/>
+      <c r="B4" s="393"/>
       <c r="C4" s="258"/>
-      <c r="D4" s="392" t="s">
+      <c r="D4" s="394" t="s">
         <v>95</v>
       </c>
-      <c r="E4" s="393"/>
+      <c r="E4" s="395"/>
       <c r="F4" s="5"/>
       <c r="G4" s="43"/>
       <c r="H4" s="7"/>
@@ -34229,7 +34303,7 @@
         <v>10</v>
       </c>
       <c r="E5" s="240">
-        <v>6792228.0499999998</v>
+        <v>6172624.0499999998</v>
       </c>
       <c r="F5" s="34"/>
       <c r="G5" s="255"/>
@@ -34257,7 +34331,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="244">
-        <v>325326.35000000044</v>
+        <v>356141.70000000042</v>
       </c>
       <c r="C6" s="41"/>
       <c r="D6" s="39" t="s">
@@ -34295,7 +34369,7 @@
         <v>57</v>
       </c>
       <c r="E7" s="240">
-        <v>354005.29999999981</v>
+        <v>460014.64999999851</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="256"/>
@@ -34350,14 +34424,14 @@
         <v>13</v>
       </c>
       <c r="B9" s="244">
-        <v>33010</v>
+        <v>35760</v>
       </c>
       <c r="C9" s="40"/>
       <c r="D9" s="39" t="s">
         <v>11</v>
       </c>
       <c r="E9" s="240">
-        <v>2848900</v>
+        <v>2889750.0000000009</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="111"/>
@@ -34382,17 +34456,17 @@
     </row>
     <row r="10" spans="1:25" ht="21.75">
       <c r="A10" s="38" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B10" s="244">
         <v>42250</v>
       </c>
       <c r="C10" s="40"/>
       <c r="D10" s="39" t="s">
-        <v>159</v>
+        <v>238</v>
       </c>
       <c r="E10" s="242">
-        <v>-1803405</v>
+        <v>1195605</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="232"/>
@@ -34421,7 +34495,7 @@
       </c>
       <c r="B11" s="279">
         <f>B6-B9-B10</f>
-        <v>250066.35000000044</v>
+        <v>278131.70000000042</v>
       </c>
       <c r="C11" s="40"/>
       <c r="D11" s="345"/>
@@ -34504,14 +34578,18 @@
       <c r="Y13" s="7"/>
     </row>
     <row r="14" spans="1:25" ht="21.75">
-      <c r="A14" s="265"/>
-      <c r="B14" s="244"/>
+      <c r="A14" s="346" t="s">
+        <v>234</v>
+      </c>
+      <c r="B14" s="347">
+        <v>2500000</v>
+      </c>
       <c r="C14" s="39"/>
       <c r="D14" s="39" t="s">
         <v>121</v>
       </c>
       <c r="E14" s="240">
-        <v>27100</v>
+        <v>28900</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="233"/>
@@ -34593,8 +34671,8 @@
         <v>5</v>
       </c>
       <c r="B17" s="245">
-        <f>B5+B11++B13-B14</f>
-        <v>8250066.3500000006</v>
+        <f>B5+B11++B13+B14</f>
+        <v>10778131.699999999</v>
       </c>
       <c r="C17" s="40"/>
       <c r="D17" s="40" t="s">
@@ -34602,7 +34680,7 @@
       </c>
       <c r="E17" s="243">
         <f>SUM(E5:E16)</f>
-        <v>8250066.3499999996</v>
+        <v>10778131.699999999</v>
       </c>
       <c r="F17" s="5"/>
       <c r="G17" s="12"/>
@@ -34658,13 +34736,13 @@
       <c r="Y18" s="7"/>
     </row>
     <row r="19" spans="1:25" ht="23.25" thickBot="1">
-      <c r="A19" s="378" t="s">
+      <c r="A19" s="380" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="379"/>
-      <c r="C19" s="379"/>
-      <c r="D19" s="379"/>
-      <c r="E19" s="380"/>
+      <c r="B19" s="381"/>
+      <c r="C19" s="381"/>
+      <c r="D19" s="381"/>
+      <c r="E19" s="382"/>
       <c r="F19" s="5"/>
       <c r="G19" s="9"/>
       <c r="H19" s="7"/>
@@ -34688,14 +34766,14 @@
     </row>
     <row r="20" spans="1:25" ht="22.5">
       <c r="A20" s="339" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B20" s="340">
         <v>62000</v>
       </c>
       <c r="C20" s="341"/>
       <c r="D20" s="342" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E20" s="343">
         <v>535090</v>
@@ -34721,14 +34799,14 @@
     </row>
     <row r="21" spans="1:25" ht="21.75">
       <c r="A21" s="326" t="s">
-        <v>188</v>
+        <v>240</v>
       </c>
       <c r="B21" s="327">
-        <v>16110</v>
+        <v>63600</v>
       </c>
       <c r="C21" s="39"/>
       <c r="D21" s="261" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E21" s="262">
         <v>482800</v>
@@ -34753,17 +34831,17 @@
     </row>
     <row r="22" spans="1:25" ht="21.75">
       <c r="A22" s="42" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B22" s="45">
-        <v>17800</v>
+        <v>16110</v>
       </c>
       <c r="C22" s="39"/>
       <c r="D22" s="261" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E22" s="262">
-        <v>300000</v>
+        <v>280000</v>
       </c>
       <c r="G22" s="17"/>
       <c r="H22" s="7"/>
@@ -34784,17 +34862,17 @@
     </row>
     <row r="23" spans="1:25" ht="21.75">
       <c r="A23" s="269" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B23" s="270">
-        <v>29180</v>
+        <v>17800</v>
       </c>
       <c r="C23" s="39"/>
       <c r="D23" s="261" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E23" s="262">
-        <v>200000</v>
+        <v>249990</v>
       </c>
       <c r="M23" s="7"/>
       <c r="N23" s="7"/>
@@ -34812,14 +34890,14 @@
     </row>
     <row r="24" spans="1:25" ht="21.75">
       <c r="A24" s="42" t="s">
-        <v>206</v>
+        <v>184</v>
       </c>
       <c r="B24" s="45">
-        <v>30000</v>
+        <v>29180</v>
       </c>
       <c r="C24" s="39"/>
       <c r="D24" s="261" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E24" s="262">
         <v>88650</v>
@@ -34839,17 +34917,17 @@
     </row>
     <row r="25" spans="1:25" ht="21.75">
       <c r="A25" s="246" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="B25" s="120">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="C25" s="39"/>
       <c r="D25" s="261" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E25" s="262">
-        <v>61100</v>
+        <v>102200</v>
       </c>
       <c r="G25" s="33"/>
       <c r="M25" s="7"/>
@@ -34868,14 +34946,14 @@
     </row>
     <row r="26" spans="1:25" ht="21.75">
       <c r="A26" s="42" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="B26" s="45">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="C26" s="121"/>
       <c r="D26" s="261" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E26" s="262">
         <v>75900</v>
@@ -34896,14 +34974,14 @@
     </row>
     <row r="27" spans="1:25" ht="21.75">
       <c r="A27" s="246" t="s">
-        <v>179</v>
+        <v>204</v>
       </c>
       <c r="B27" s="120">
-        <v>23770</v>
+        <v>22000</v>
       </c>
       <c r="C27" s="121"/>
       <c r="D27" s="261" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E27" s="262">
         <v>37450</v>
@@ -34925,17 +35003,17 @@
     </row>
     <row r="28" spans="1:25" ht="21.75">
       <c r="A28" s="246" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="B28" s="120">
-        <v>29160</v>
+        <v>23770</v>
       </c>
       <c r="C28" s="121"/>
       <c r="D28" s="261" t="s">
         <v>205</v>
       </c>
       <c r="E28" s="262">
-        <v>40220</v>
+        <v>17000</v>
       </c>
       <c r="G28" s="16"/>
       <c r="M28" s="7"/>
@@ -34954,17 +35032,17 @@
     </row>
     <row r="29" spans="1:25" ht="21.75">
       <c r="A29" s="42" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="B29" s="45">
-        <v>83060</v>
+        <v>29160</v>
       </c>
       <c r="C29" s="121"/>
       <c r="D29" s="261" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="E29" s="262">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="G29" s="16"/>
       <c r="K29" s="7"/>
@@ -34984,17 +35062,17 @@
     </row>
     <row r="30" spans="1:25" ht="21.75">
       <c r="A30" s="246" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="B30" s="120">
-        <v>20000</v>
+        <v>83060</v>
       </c>
       <c r="C30" s="121"/>
       <c r="D30" s="261" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
       <c r="E30" s="262">
-        <v>19020</v>
+        <v>40000</v>
       </c>
       <c r="G30" s="16"/>
       <c r="N30" s="7"/>
@@ -35012,17 +35090,17 @@
     </row>
     <row r="31" spans="1:25" ht="21.75">
       <c r="A31" s="335" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="B31" s="336">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="C31" s="332"/>
       <c r="D31" s="333" t="s">
-        <v>201</v>
+        <v>178</v>
       </c>
       <c r="E31" s="334">
-        <v>70000</v>
+        <v>38230</v>
       </c>
       <c r="G31" s="16"/>
       <c r="N31" s="7"/>
@@ -35040,17 +35118,17 @@
     </row>
     <row r="32" spans="1:25" ht="21.75">
       <c r="A32" s="330" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="B32" s="331">
-        <v>232580</v>
+        <v>15000</v>
       </c>
       <c r="C32" s="332"/>
       <c r="D32" s="333" t="s">
-        <v>193</v>
+        <v>239</v>
       </c>
       <c r="E32" s="334">
-        <v>40000</v>
+        <v>47000</v>
       </c>
       <c r="G32" s="16"/>
       <c r="N32" s="7"/>
@@ -35068,17 +35146,17 @@
     </row>
     <row r="33" spans="1:25" ht="21.75">
       <c r="A33" s="335" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="B33" s="336">
-        <v>29000</v>
+        <v>232580</v>
       </c>
       <c r="C33" s="332"/>
       <c r="D33" s="333" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E33" s="334">
-        <v>38230</v>
+        <v>63000</v>
       </c>
       <c r="G33" s="16"/>
       <c r="N33" s="7"/>
@@ -35096,14 +35174,14 @@
     </row>
     <row r="34" spans="1:25" ht="22.5" thickBot="1">
       <c r="A34" s="337" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B34" s="338">
-        <v>63000</v>
+        <v>29000</v>
       </c>
       <c r="C34" s="328"/>
       <c r="D34" s="272" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E34" s="273">
         <v>63000</v>
@@ -38583,8 +38661,8 @@
       <c r="Y207" s="7"/>
     </row>
   </sheetData>
-  <sortState ref="J23:K30">
-    <sortCondition descending="1" ref="J23"/>
+  <sortState ref="D28:E33">
+    <sortCondition ref="D28"/>
   </sortState>
   <mergeCells count="6">
     <mergeCell ref="A19:E19"/>
